--- a/testExcel_json/excel/柜台表.xlsx
+++ b/testExcel_json/excel/柜台表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11505"/>
+    <workbookView windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="tbl_counter" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <t>storage</t>
   </si>
   <si>
-    <t xml:space="preserve"> serviceList</t>
+    <t>serviceList</t>
   </si>
   <si>
     <t>int</t>
@@ -61,12 +61,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,27 +84,48 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,6 +147,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -134,29 +170,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,53 +180,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,7 +196,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,91 +234,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,91 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,17 +428,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,15 +451,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,22 +470,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,16 +500,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -537,148 +530,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,7 +1036,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/testExcel_json/excel/柜台表.xlsx
+++ b/testExcel_json/excel/柜台表.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="tbl_counter" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>ID</t>
   </si>
@@ -54,6 +52,12 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>食品柜</t>
+  </si>
+  <si>
+    <t>1|2|3</t>
   </si>
 </sst>
 </file>
@@ -61,10 +65,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -88,6 +92,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -95,6 +107,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -102,8 +138,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,6 +148,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,56 +191,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,37 +228,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -234,187 +238,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,29 +432,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,16 +462,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -502,6 +512,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -510,21 +529,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -533,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,133 +549,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,13 +1037,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A5" sqref="$A5:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
@@ -1096,34 +1100,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>6</v>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1131,38 +1122,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/testExcel_json/excel/柜台表.xlsx
+++ b/testExcel_json/excel/柜台表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
   <si>
     <t>ID</t>
   </si>
@@ -33,6 +33,12 @@
     <t>业务列表</t>
   </si>
   <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>前置科技</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -48,16 +54,319 @@
     <t>serviceList</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>unLockTechID</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>食品柜</t>
+    <t>食品柜1</t>
   </si>
   <si>
     <t>1|2|3</t>
+  </si>
+  <si>
+    <t>食品柜2</t>
+  </si>
+  <si>
+    <t>食品柜3</t>
+  </si>
+  <si>
+    <t>食品柜4</t>
+  </si>
+  <si>
+    <t>食品柜5</t>
+  </si>
+  <si>
+    <t>食品柜6</t>
+  </si>
+  <si>
+    <t>食品柜7</t>
+  </si>
+  <si>
+    <t>食品柜8</t>
+  </si>
+  <si>
+    <t>食品柜9</t>
+  </si>
+  <si>
+    <t>食品柜10</t>
+  </si>
+  <si>
+    <t>食品柜11</t>
+  </si>
+  <si>
+    <t>食品柜12</t>
+  </si>
+  <si>
+    <t>食品柜13</t>
+  </si>
+  <si>
+    <t>食品柜14</t>
+  </si>
+  <si>
+    <t>食品柜15</t>
+  </si>
+  <si>
+    <t>食品柜16</t>
+  </si>
+  <si>
+    <t>食品柜17</t>
+  </si>
+  <si>
+    <t>食品柜18</t>
+  </si>
+  <si>
+    <t>食品柜19</t>
+  </si>
+  <si>
+    <t>食品柜20</t>
+  </si>
+  <si>
+    <t>食品柜21</t>
+  </si>
+  <si>
+    <t>食品柜22</t>
+  </si>
+  <si>
+    <t>食品柜23</t>
+  </si>
+  <si>
+    <t>食品柜24</t>
+  </si>
+  <si>
+    <t>食品柜25</t>
+  </si>
+  <si>
+    <t>食品柜26</t>
+  </si>
+  <si>
+    <t>食品柜27</t>
+  </si>
+  <si>
+    <t>食品柜28</t>
+  </si>
+  <si>
+    <t>食品柜29</t>
+  </si>
+  <si>
+    <t>食品柜30</t>
+  </si>
+  <si>
+    <t>食品柜31</t>
+  </si>
+  <si>
+    <t>食品柜32</t>
+  </si>
+  <si>
+    <t>食品柜33</t>
+  </si>
+  <si>
+    <t>食品柜34</t>
+  </si>
+  <si>
+    <t>食品柜35</t>
+  </si>
+  <si>
+    <t>食品柜36</t>
+  </si>
+  <si>
+    <t>食品柜37</t>
+  </si>
+  <si>
+    <t>食品柜38</t>
+  </si>
+  <si>
+    <t>食品柜39</t>
+  </si>
+  <si>
+    <t>食品柜40</t>
+  </si>
+  <si>
+    <t>食品柜41</t>
+  </si>
+  <si>
+    <t>食品柜42</t>
+  </si>
+  <si>
+    <t>食品柜43</t>
+  </si>
+  <si>
+    <t>食品柜44</t>
+  </si>
+  <si>
+    <t>食品柜45</t>
+  </si>
+  <si>
+    <t>食品柜46</t>
+  </si>
+  <si>
+    <t>食品柜47</t>
+  </si>
+  <si>
+    <t>食品柜48</t>
+  </si>
+  <si>
+    <t>食品柜49</t>
+  </si>
+  <si>
+    <t>食品柜50</t>
+  </si>
+  <si>
+    <t>食品柜51</t>
+  </si>
+  <si>
+    <t>食品柜52</t>
+  </si>
+  <si>
+    <t>食品柜53</t>
+  </si>
+  <si>
+    <t>食品柜54</t>
+  </si>
+  <si>
+    <t>食品柜55</t>
+  </si>
+  <si>
+    <t>食品柜56</t>
+  </si>
+  <si>
+    <t>食品柜57</t>
+  </si>
+  <si>
+    <t>食品柜58</t>
+  </si>
+  <si>
+    <t>食品柜59</t>
+  </si>
+  <si>
+    <t>食品柜60</t>
+  </si>
+  <si>
+    <t>食品柜61</t>
+  </si>
+  <si>
+    <t>食品柜62</t>
+  </si>
+  <si>
+    <t>食品柜63</t>
+  </si>
+  <si>
+    <t>食品柜64</t>
+  </si>
+  <si>
+    <t>食品柜65</t>
+  </si>
+  <si>
+    <t>食品柜66</t>
+  </si>
+  <si>
+    <t>食品柜67</t>
+  </si>
+  <si>
+    <t>食品柜68</t>
+  </si>
+  <si>
+    <t>食品柜69</t>
+  </si>
+  <si>
+    <t>食品柜70</t>
+  </si>
+  <si>
+    <t>食品柜71</t>
+  </si>
+  <si>
+    <t>食品柜72</t>
+  </si>
+  <si>
+    <t>食品柜73</t>
+  </si>
+  <si>
+    <t>食品柜74</t>
+  </si>
+  <si>
+    <t>食品柜75</t>
+  </si>
+  <si>
+    <t>食品柜76</t>
+  </si>
+  <si>
+    <t>食品柜77</t>
+  </si>
+  <si>
+    <t>食品柜78</t>
+  </si>
+  <si>
+    <t>食品柜79</t>
+  </si>
+  <si>
+    <t>食品柜80</t>
+  </si>
+  <si>
+    <t>食品柜81</t>
+  </si>
+  <si>
+    <t>食品柜82</t>
+  </si>
+  <si>
+    <t>食品柜83</t>
+  </si>
+  <si>
+    <t>食品柜84</t>
+  </si>
+  <si>
+    <t>食品柜85</t>
+  </si>
+  <si>
+    <t>食品柜86</t>
+  </si>
+  <si>
+    <t>食品柜87</t>
+  </si>
+  <si>
+    <t>食品柜88</t>
+  </si>
+  <si>
+    <t>食品柜89</t>
+  </si>
+  <si>
+    <t>食品柜90</t>
+  </si>
+  <si>
+    <t>食品柜91</t>
+  </si>
+  <si>
+    <t>食品柜92</t>
+  </si>
+  <si>
+    <t>食品柜93</t>
+  </si>
+  <si>
+    <t>食品柜94</t>
+  </si>
+  <si>
+    <t>食品柜95</t>
+  </si>
+  <si>
+    <t>食品柜96</t>
+  </si>
+  <si>
+    <t>食品柜97</t>
+  </si>
+  <si>
+    <t>食品柜98</t>
+  </si>
+  <si>
+    <t>食品柜99</t>
+  </si>
+  <si>
+    <t>食品柜100</t>
   </si>
 </sst>
 </file>
@@ -66,9 +375,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -86,7 +395,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,16 +409,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,24 +462,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,29 +515,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,22 +537,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -238,13 +547,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,13 +637,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,7 +673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,73 +685,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,13 +709,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,30 +728,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,17 +756,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,16 +784,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,11 +813,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,10 +846,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +858,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,19 +1346,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:G103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="49.5" spans="1:5">
+    <row r="1" ht="49.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1065,56 +1375,2357 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
         <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>200</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>200</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>200</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>200</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>200</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>200</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>200</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>200</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>26</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>200</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30">
+        <v>27</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>200</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31">
+        <v>28</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>200</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32">
+        <v>29</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>200</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>30</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>200</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34">
+        <v>31</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>200</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35">
+        <v>32</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>200</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>200</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37">
+        <v>34</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>200</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38">
+        <v>35</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>200</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39">
+        <v>36</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>200</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40">
+        <v>37</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>200</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41">
+        <v>38</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>200</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42">
+        <v>39</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>200</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43">
+        <v>40</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>200</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44">
+        <v>41</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>200</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45">
+        <v>42</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>200</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46">
+        <v>43</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>200</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47">
+        <v>44</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>200</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48">
+        <v>45</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>200</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49">
+        <v>46</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>200</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50">
+        <v>47</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>200</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51">
+        <v>48</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>200</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52">
+        <v>49</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>200</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53">
+        <v>50</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>200</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54">
+        <v>51</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>200</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55">
+        <v>52</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>200</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56">
+        <v>53</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>200</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57">
+        <v>54</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>200</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58">
+        <v>55</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>200</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59">
+        <v>56</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>200</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60">
+        <v>57</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>200</v>
+      </c>
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61">
+        <v>58</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>200</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62">
+        <v>59</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>200</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63">
+        <v>60</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>200</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64">
+        <v>61</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>200</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65">
+        <v>62</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>200</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66">
+        <v>63</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>200</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67">
+        <v>64</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>200</v>
+      </c>
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68">
+        <v>65</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>200</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69">
+        <v>66</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>200</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70">
+        <v>67</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>200</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71">
+        <v>68</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>200</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72">
+        <v>69</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>200</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73">
+        <v>70</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>200</v>
+      </c>
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74">
+        <v>71</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>200</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75">
+        <v>72</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>200</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76">
+        <v>73</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>200</v>
+      </c>
+      <c r="E77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77">
+        <v>74</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>200</v>
+      </c>
+      <c r="E78" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78">
+        <v>75</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>200</v>
+      </c>
+      <c r="E79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79">
+        <v>76</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>200</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80">
+        <v>77</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>200</v>
+      </c>
+      <c r="E81" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81">
+        <v>78</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>200</v>
+      </c>
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82">
+        <v>79</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>200</v>
+      </c>
+      <c r="E83" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83">
+        <v>80</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>200</v>
+      </c>
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84">
+        <v>81</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>200</v>
+      </c>
+      <c r="E85" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85">
+        <v>82</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>200</v>
+      </c>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86">
+        <v>83</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>200</v>
+      </c>
+      <c r="E87" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87">
+        <v>84</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>200</v>
+      </c>
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88">
+        <v>85</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>200</v>
+      </c>
+      <c r="E89" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89">
+        <v>86</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>200</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90">
+        <v>87</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91" t="s">
+        <v>104</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>200</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91">
+        <v>88</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>200</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92">
+        <v>89</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>200</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93">
+        <v>90</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>200</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94">
+        <v>91</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>200</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95">
+        <v>92</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
+        <v>109</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>200</v>
+      </c>
+      <c r="E96" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96">
+        <v>93</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>200</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97">
+        <v>94</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>200</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98">
+        <v>95</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>200</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99">
+        <v>96</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100" t="s">
+        <v>113</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>200</v>
+      </c>
+      <c r="E100" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100">
+        <v>97</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>200</v>
+      </c>
+      <c r="E101" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101">
+        <v>98</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>200</v>
+      </c>
+      <c r="E102" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102">
+        <v>99</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103" t="s">
+        <v>116</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>200</v>
+      </c>
+      <c r="E103" t="s">
+        <v>17</v>
+      </c>
+      <c r="F103">
+        <v>100</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
